--- a/7.2_Alternative_fouling_approach/Example_TCE_F400_example2.xlsx
+++ b/7.2_Alternative_fouling_approach/Example_TCE_F400_example2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:B196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,111 +450,111 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1.541040386469908e-08</v>
+        <v>1.541045002188141e-08</v>
       </c>
       <c r="B3" t="n">
-        <v>5.573289181464166e-08</v>
+        <v>2.026656676562852e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.082080772939816e-08</v>
+        <v>3.082090004376282e-08</v>
       </c>
       <c r="B4" t="n">
-        <v>1.113642856757873e-07</v>
+        <v>4.049622501509648e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1.84924846376389e-07</v>
+        <v>1.849254002625769e-07</v>
       </c>
       <c r="B5" t="n">
-        <v>6.588184630414905e-07</v>
+        <v>2.395710613261439e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.390288850233797e-07</v>
+        <v>3.39029900481391e-07</v>
       </c>
       <c r="B6" t="n">
-        <v>1.196274928516254e-06</v>
+        <v>4.350103492796097e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1.024155910993097e-06</v>
+        <v>1.024158344593378e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>3.473707786196353e-06</v>
+        <v>1.263169377381355e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1.709282936962815e-06</v>
+        <v>1.709286788705366e-06</v>
       </c>
       <c r="B8" t="n">
-        <v>5.563835807801103e-06</v>
+        <v>2.023217362578591e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2.394409962932533e-06</v>
+        <v>2.394415232817353e-06</v>
       </c>
       <c r="B9" t="n">
-        <v>7.47154361065076e-06</v>
+        <v>2.716930527790316e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5.747065690309269e-06</v>
+        <v>5.747078408186327e-06</v>
       </c>
       <c r="B10" t="n">
-        <v>1.454711073970668e-05</v>
+        <v>5.289867734266747e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9.099721417686003e-06</v>
+        <v>9.0997415835553e-06</v>
       </c>
       <c r="B11" t="n">
-        <v>1.830178407412578e-05</v>
+        <v>6.655202751656044e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1.245237714506274e-05</v>
+        <v>1.245240475892427e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>1.945414945604002e-05</v>
+        <v>7.074240158991521e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1.977198001904104e-05</v>
+        <v>1.977181957924806e-05</v>
       </c>
       <c r="B13" t="n">
-        <v>1.564806873458443e-05</v>
+        <v>5.69026303784414e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2.709158289301935e-05</v>
+        <v>2.709123439957184e-05</v>
       </c>
       <c r="B14" t="n">
-        <v>7.320685795740051e-06</v>
+        <v>2.662221938440807e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.259697082009878e-05</v>
+        <v>3.259655252045081e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>2.787602298036452e-07</v>
+        <v>1.015390674393592e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.810235874717821e-05</v>
+        <v>3.810187064132978e-05</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.360774667425764e-05</v>
+        <v>4.360718876220876e-05</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.911313460133706e-05</v>
+        <v>4.911250688308773e-05</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>5.810124005356933e-05</v>
+        <v>5.810036385705729e-05</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>6.708934550580159e-05</v>
+        <v>6.708822083102684e-05</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>7.607745095803385e-05</v>
+        <v>7.607607780499639e-05</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>8.506555641026611e-05</v>
+        <v>8.506393477896595e-05</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>9.668085376392486e-05</v>
+        <v>9.667914702985708e-05</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0.0001082961511175836</v>
+        <v>0.0001082943592807482</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0.0001199114484712424</v>
+        <v>0.0001199095715316393</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0.0001315267458249011</v>
+        <v>0.0001315247837825304</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>0.0001431420431785599</v>
+        <v>0.0001431399960334216</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -650,71 +650,71 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>0.0001574045936535034</v>
+        <v>0.0001574025209080357</v>
       </c>
       <c r="B28" t="n">
-        <v>3.938587992784012e-06</v>
+        <v>1.432208367191409e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0.0001716671441284468</v>
+        <v>0.0001716650457826498</v>
       </c>
       <c r="B29" t="n">
-        <v>6.348325244207601e-06</v>
+        <v>2.30859196290282e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>0.0001859296946033903</v>
+        <v>0.0001859275706572639</v>
       </c>
       <c r="B30" t="n">
-        <v>7.396591545945187e-06</v>
+        <v>2.689870055526743e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>0.0002001922450783337</v>
+        <v>0.000200190095531878</v>
       </c>
       <c r="B31" t="n">
-        <v>7.389863412990841e-06</v>
+        <v>2.687486426911743e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>0.0002144547955532772</v>
+        <v>0.0002144526204064921</v>
       </c>
       <c r="B32" t="n">
-        <v>6.646892931115251e-06</v>
+        <v>2.417353214749231e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>0.0002348747373624913</v>
+        <v>0.0002348707906034987</v>
       </c>
       <c r="B33" t="n">
-        <v>4.839740769182544e-06</v>
+        <v>1.76029175802822e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>0.0002552946791717054</v>
+        <v>0.0002552889608005052</v>
       </c>
       <c r="B34" t="n">
-        <v>2.752576507205699e-06</v>
+        <v>1.001382609537745e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>0.0002757146209809195</v>
+        <v>0.0002757071309975118</v>
       </c>
       <c r="B35" t="n">
-        <v>8.371934920134394e-07</v>
+        <v>3.048963187905206e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>0.0002961345627901336</v>
+        <v>0.0002961253011945184</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>0.0003248360561388737</v>
+        <v>0.000324825863701705</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>0.0003535375494876138</v>
+        <v>0.0003535264262088915</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>0.0003822390428363539</v>
+        <v>0.0003822269887160781</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>0.0004109405361850939</v>
+        <v>0.0004109275512232647</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>0.000439642029533834</v>
+        <v>0.0004396281137304512</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>0.0004809718885620857</v>
+        <v>0.0004809553370183893</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>0.0005223017475903373</v>
+        <v>0.0005222825603063274</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>0.0005636316066185889</v>
+        <v>0.0005636097835942655</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>0.0006049614656468406</v>
+        <v>0.0006049370068822035</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>0.0006669344265249684</v>
+        <v>0.0006668944981041791</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>0.0007289073874030961</v>
+        <v>0.0007288519893261547</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>0.0007908803482812241</v>
+        <v>0.0007908094805481303</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>0.0009392541394517573</v>
+        <v>0.0009326040531545488</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>0.00108762793062229</v>
+        <v>0.001074398625760967</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>0.001408225263491603</v>
+        <v>0.001337655080439528</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>0.001728822596360915</v>
+        <v>0.001600911535118088</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>0.002752820644114423</v>
+        <v>0.001864167989796649</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>0.00377681869186793</v>
+        <v>0.002902941910989919</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>0.004800816739621438</v>
+        <v>0.003941715832183189</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>0.007046427606834766</v>
+        <v>0.004980489753376459</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>0.009292038474048095</v>
+        <v>0.007456536036872974</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>0.01153764934126142</v>
+        <v>0.009932582320369488</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>0.01378326020847475</v>
+        <v>0.012408628603866</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>0.01805536734871465</v>
+        <v>0.01488467488736252</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>0.02232747448895455</v>
+        <v>0.01763626980737865</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>0.02659958162919445</v>
+        <v>0.02038786472739479</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>0.03087168876943434</v>
+        <v>0.02313945964741092</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>0.03514379590967424</v>
+        <v>0.02589105456742706</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>0.04273727381814618</v>
+        <v>0.02864264948744319</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>0.0503307517266181</v>
+        <v>0.03621596271794659</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>0.05792422963509003</v>
+        <v>0.04378927594844998</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>0.06551770754356197</v>
+        <v>0.05136258917895337</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>0.08076242631228693</v>
+        <v>0.05893590240945676</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>0.09600714508101191</v>
+        <v>0.06650921563996016</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>0.1112518638497369</v>
+        <v>0.07821832397457967</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>0.1264965826184619</v>
+        <v>0.0899274323091992</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>0.1523344956081809</v>
+        <v>0.1016365406438187</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>0.1781724085979</v>
+        <v>0.1133456489784382</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>0.204010321587619</v>
+        <v>0.1346587999109921</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>0.2298482345773381</v>
+        <v>0.155971950843546</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>0.2556861475670571</v>
+        <v>0.1772851017760999</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>0.3129774495087807</v>
+        <v>0.1985982527086538</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>0.3702687514505043</v>
+        <v>0.233737211228636</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>0.4275600533922278</v>
+        <v>0.2688761697486182</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>0.4848513553339514</v>
+        <v>0.3040151282686004</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>0.5678248350155048</v>
+        <v>0.3391540867885826</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>0.6507983146970584</v>
+        <v>0.3955461552159754</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -1098,159 +1098,159 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>0.7337717943786118</v>
+        <v>0.4519382236433682</v>
       </c>
       <c r="B84" t="n">
-        <v>6.831036435985704e-09</v>
+        <v>1.306418596321433e-07</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>0.8167452740601655</v>
+        <v>0.5083302920707611</v>
       </c>
       <c r="B85" t="n">
-        <v>1.077272224351127e-07</v>
+        <v>5.28281218771322e-07</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>0.8997187537417191</v>
+        <v>0.5647223604981539</v>
       </c>
       <c r="B86" t="n">
-        <v>2.006456482970866e-07</v>
+        <v>8.887422798456262e-07</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>1.032451730921289</v>
+        <v>0.6541864048228104</v>
       </c>
       <c r="B87" t="n">
-        <v>3.33932400619777e-07</v>
+        <v>1.392601282298314e-06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1.165184708100859</v>
+        <v>0.7436504491474669</v>
       </c>
       <c r="B88" t="n">
-        <v>4.504774420539396e-07</v>
+        <v>1.821357107975384e-06</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>1.297917685280428</v>
+        <v>0.8331144934721234</v>
       </c>
       <c r="B89" t="n">
-        <v>5.521103991030175e-07</v>
+        <v>2.183566113944212e-06</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>1.430650662459998</v>
+        <v>0.9225785377967799</v>
       </c>
       <c r="B90" t="n">
-        <v>6.400783047549389e-07</v>
+        <v>2.48616028913453e-06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>1.637390813280421</v>
+        <v>1.012042582121436</v>
       </c>
       <c r="B91" t="n">
-        <v>7.524997193820884e-07</v>
+        <v>2.735420672016235e-06</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>1.844130964100845</v>
+        <v>1.152847693438016</v>
       </c>
       <c r="B92" t="n">
-        <v>8.378627286813796e-07</v>
+        <v>3.030468034602307e-06</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>2.050871114921268</v>
+        <v>1.293652804754595</v>
       </c>
       <c r="B93" t="n">
-        <v>8.992984995520122e-07</v>
+        <v>3.223366048082128e-06</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>2.257611265741692</v>
+        <v>1.434457916071175</v>
       </c>
       <c r="B94" t="n">
-        <v>9.396373513253486e-07</v>
+        <v>3.327294025357997e-06</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>2.464351416562116</v>
+        <v>1.575263027387754</v>
       </c>
       <c r="B95" t="n">
-        <v>9.612740844374402e-07</v>
+        <v>3.354165784129012e-06</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>2.820643001013737</v>
+        <v>1.800724608654539</v>
       </c>
       <c r="B96" t="n">
-        <v>9.600265176706069e-07</v>
+        <v>3.262254577239529e-06</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>3.176934585465359</v>
+        <v>2.026186189921324</v>
       </c>
       <c r="B97" t="n">
-        <v>9.18014605480191e-07</v>
+        <v>3.03521291884362e-06</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>3.53322616991698</v>
+        <v>2.251647771188109</v>
       </c>
       <c r="B98" t="n">
-        <v>8.428230351413372e-07</v>
+        <v>2.703228025046085e-06</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>3.889517754368601</v>
+        <v>2.477109352454894</v>
       </c>
       <c r="B99" t="n">
-        <v>7.407476472013875e-07</v>
+        <v>2.290510167092991e-06</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.389712084733734</v>
+        <v>2.789023389177018</v>
       </c>
       <c r="B100" t="n">
-        <v>5.627137853295655e-07</v>
+        <v>1.624820581652666e-06</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.889906415098866</v>
+        <v>3.10093742589914</v>
       </c>
       <c r="B101" t="n">
-        <v>3.557644914526236e-07</v>
+        <v>8.893581032971186e-07</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>5.390100745463998</v>
+        <v>3.412851462621264</v>
       </c>
       <c r="B102" t="n">
-        <v>1.311090325855253e-07</v>
+        <v>1.210131428398712e-07</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>5.890295075829131</v>
+        <v>3.724765499343387</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>6.390489406194264</v>
+        <v>4.036679536065511</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>7.160487191638712</v>
+        <v>4.515819720850621</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>7.93048497708316</v>
+        <v>4.994959905635731</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>8.70048276252761</v>
+        <v>5.474100090420843</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>9.470480547972057</v>
+        <v>5.953240275205955</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>10.24047833341651</v>
+        <v>6.432380459991066</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>11.14529411877917</v>
+        <v>7.023738975461464</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>12.05010990414184</v>
+        <v>7.615097490931864</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>12.95492568950451</v>
+        <v>8.206456006402261</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>13.85974147486717</v>
+        <v>8.797814521872661</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>14.76455726022984</v>
+        <v>9.38917303734306</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1346,119 +1346,119 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>15.79475965087243</v>
+        <v>10.17651273202579</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>3.211500175027326e-07</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>16.82496204151503</v>
+        <v>10.96385242670852</v>
       </c>
       <c r="B116" t="n">
-        <v>4.92218329698747e-07</v>
+        <v>2.070668400994361e-06</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>17.85516443215763</v>
+        <v>11.75119212139125</v>
       </c>
       <c r="B117" t="n">
-        <v>1.005226199055725e-06</v>
+        <v>3.761812716850022e-06</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>18.88536682280023</v>
+        <v>12.53853181607398</v>
       </c>
       <c r="B118" t="n">
-        <v>1.492910541553196e-06</v>
+        <v>5.271040220876907e-06</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>19.91556921344282</v>
+        <v>13.32587151075671</v>
       </c>
       <c r="B119" t="n">
-        <v>1.930393790270323e-06</v>
+        <v>6.491253861751086e-06</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>21.03993469601281</v>
+        <v>13.96246059445036</v>
       </c>
       <c r="B120" t="n">
-        <v>2.309605353662792e-06</v>
+        <v>7.172714256206274e-06</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>22.16430017858279</v>
+        <v>14.59904967814402</v>
       </c>
       <c r="B121" t="n">
-        <v>2.548633890787933e-06</v>
+        <v>7.534939206147092e-06</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>23.28866566115277</v>
+        <v>15.23563876183768</v>
       </c>
       <c r="B122" t="n">
-        <v>2.620137153954649e-06</v>
+        <v>7.549662154600474e-06</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>24.41303114372276</v>
+        <v>15.87222784553133</v>
       </c>
       <c r="B123" t="n">
-        <v>2.50493746604511e-06</v>
+        <v>7.19479444163075e-06</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>25.53739662629274</v>
+        <v>16.50881692922499</v>
       </c>
       <c r="B124" t="n">
-        <v>2.207584667302987e-06</v>
+        <v>6.488917042678183e-06</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>26.6200880224193</v>
+        <v>17.14540601291864</v>
       </c>
       <c r="B125" t="n">
-        <v>1.760509724042527e-06</v>
+        <v>5.464188898333297e-06</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>27.70277941854586</v>
+        <v>17.85441238869737</v>
       </c>
       <c r="B126" t="n">
-        <v>1.175558566435838e-06</v>
+        <v>3.989900284390819e-06</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>28.78547081467242</v>
+        <v>18.56341876447611</v>
       </c>
       <c r="B127" t="n">
-        <v>4.810101464838124e-07</v>
+        <v>2.234420969567616e-06</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>29.86816221079898</v>
+        <v>19.27242514025484</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>2.799336847343999e-07</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>30.95085360692555</v>
+        <v>19.98143151603357</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>32.52433657154203</v>
+        <v>20.6904378918123</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>34.09781953615853</v>
+        <v>21.81515560100136</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>35.67130250077501</v>
+        <v>22.93987331019042</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>36.2067124852885</v>
+        <v>24.06459101937948</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>36.74212246980199</v>
+        <v>24.96518087363961</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>37.27753245431548</v>
+        <v>25.86577072789974</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>37.81294243882898</v>
+        <v>26.76636058215987</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>38.34835242334247</v>
+        <v>27.66695043642</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>39.32419971489037</v>
+        <v>28.23137723251349</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>40.30004700643827</v>
+        <v>28.79580402860698</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>41.27589429798618</v>
+        <v>29.36023082470047</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -1554,167 +1554,167 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>42.25174158953408</v>
+        <v>29.92465762079395</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1.598303484361339e-06</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>43.32175553724976</v>
+        <v>30.48908441688744</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>3.486575274267905e-06</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44.39176948496544</v>
+        <v>31.4076692934671</v>
       </c>
       <c r="B143" t="n">
-        <v>7.599368358250331e-07</v>
+        <v>6.475478522869542e-06</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>45.46178343268113</v>
+        <v>32.32625417004675</v>
       </c>
       <c r="B144" t="n">
-        <v>1.74605047708239e-06</v>
+        <v>9.230599313505286e-06</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>46.53179738039681</v>
+        <v>33.06914845635654</v>
       </c>
       <c r="B145" t="n">
-        <v>2.699616375799343e-06</v>
+        <v>1.119194883679895e-05</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>47.8763281262402</v>
+        <v>33.81204274266633</v>
       </c>
       <c r="B146" t="n">
-        <v>3.791299316597708e-06</v>
+        <v>1.283424809871652e-05</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>48.90118803553301</v>
+        <v>34.55493702897611</v>
       </c>
       <c r="B147" t="n">
-        <v>4.500797614657707e-06</v>
+        <v>1.395611083588159e-05</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>49.24609612092741</v>
+        <v>35.2978313152859</v>
       </c>
       <c r="B148" t="n">
-        <v>4.719696075287614e-06</v>
+        <v>1.444680046209363e-05</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>49.5910042063218</v>
+        <v>36.00028183465494</v>
       </c>
       <c r="B149" t="n">
-        <v>4.906598949162903e-06</v>
+        <v>1.427296539441906e-05</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>49.9359122917162</v>
+        <v>36.70273235402399</v>
       </c>
       <c r="B150" t="n">
-        <v>5.0673489517818e-06</v>
+        <v>1.342160397015346e-05</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>50.28082037711059</v>
+        <v>37.40518287339303</v>
       </c>
       <c r="B151" t="n">
-        <v>5.203281234776463e-06</v>
+        <v>1.1926387269136e-05</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>50.62572846250498</v>
+        <v>38.10763339276208</v>
       </c>
       <c r="B152" t="n">
-        <v>5.311907082665149e-06</v>
+        <v>9.841185219399274e-06</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>51.32885430846893</v>
+        <v>39.01199136432359</v>
       </c>
       <c r="B153" t="n">
-        <v>5.441441626010404e-06</v>
+        <v>6.409464052482726e-06</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>52.03198015443289</v>
+        <v>39.91634933588511</v>
       </c>
       <c r="B154" t="n">
-        <v>5.440541428637147e-06</v>
+        <v>2.355480818194361e-06</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>52.73510600039684</v>
+        <v>40.82070730744663</v>
       </c>
       <c r="B155" t="n">
-        <v>5.301873856257137e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>53.43823184636079</v>
+        <v>41.72506527900815</v>
       </c>
       <c r="B156" t="n">
-        <v>5.027062865790845e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>54.37196594634705</v>
+        <v>42.90709258301119</v>
       </c>
       <c r="B157" t="n">
-        <v>4.466741628664595e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>55.30570004633331</v>
+        <v>44.08911988701423</v>
       </c>
       <c r="B158" t="n">
-        <v>3.697874691928567e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>56.23943414631956</v>
+        <v>45.27114719101727</v>
       </c>
       <c r="B159" t="n">
-        <v>2.748338873524556e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>57.17316824630581</v>
+        <v>46.45317449502031</v>
       </c>
       <c r="B160" t="n">
-        <v>1.656249992001301e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>58.5378994706373</v>
+        <v>47.63520179902336</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>59.90263069496878</v>
+        <v>48.68487623643506</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -1730,290 +1730,274 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>61.26736191930026</v>
+        <v>49.73455067384676</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>7.264917187099638e-06</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>62.63209314363174</v>
+        <v>50.78422511125848</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1.712878272244202e-05</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>63.99682436796322</v>
+        <v>51.83389954867018</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>2.904393709070401e-05</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>65.29513804622344</v>
+        <v>52.88357398608188</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>4.384084733847547e-05</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>66.59345172448367</v>
+        <v>54.1017596755865</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>6.766807327504313e-05</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>67.8917654027439</v>
+        <v>55.31994536509111</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>0.0001063484037700955</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>69.19007908100413</v>
+        <v>56.53813105459571</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>0.000174589508888923</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>70.48839275926434</v>
+        <v>57.75631674410032</v>
       </c>
       <c r="B170" t="n">
-        <v>1.412485130724378e-06</v>
+        <v>0.0002956637545450216</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>71.98094054579927</v>
+        <v>58.97450243360493</v>
       </c>
       <c r="B171" t="n">
-        <v>5.124622564504322e-06</v>
+        <v>0.0005032181277803425</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>73.47348833233418</v>
+        <v>60.15207072299624</v>
       </c>
       <c r="B172" t="n">
-        <v>9.775649321191806e-06</v>
+        <v>0.0008274417205622088</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>74.9660361188691</v>
+        <v>61.32963901238755</v>
       </c>
       <c r="B173" t="n">
-        <v>1.576803187549282e-05</v>
+        <v>0.001321106248758421</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>76.45858390540403</v>
+        <v>62.50720730177885</v>
       </c>
       <c r="B174" t="n">
-        <v>2.405631774918452e-05</v>
+        <v>0.002035509206788098</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>77.95113169193894</v>
+        <v>63.68477559117017</v>
       </c>
       <c r="B175" t="n">
-        <v>3.681107029997785e-05</v>
+        <v>0.003014514133524766</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>79.37755054208814</v>
+        <v>64.86234388056147</v>
       </c>
       <c r="B176" t="n">
-        <v>5.688113357324158e-05</v>
+        <v>0.004283904547903091</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>80.80396939223733</v>
+        <v>66.03991216995277</v>
       </c>
       <c r="B177" t="n">
-        <v>9.044131055688707e-05</v>
+        <v>0.005842723601215065</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>82.23038824238652</v>
+        <v>67.60835667197428</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0001460083239765545</v>
+        <v>0.008322131542810619</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>83.65680709253573</v>
+        <v>69.17680117399577</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0002354183906511084</v>
+        <v>0.01114593863066968</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>85.08322594268493</v>
+        <v>70.74524567601728</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0003742884001183399</v>
+        <v>0.01415822705094101</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>86.77349635051064</v>
+        <v>72.31369017803878</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0006298089546031816</v>
+        <v>0.01720715697533644</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>88.46376675833635</v>
+        <v>73.88213468006029</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001018537190027049</v>
+        <v>0.02016814806420375</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>90.15403716616207</v>
+        <v>76.35717483427953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001575875224599022</v>
+        <v>0.02446617222905302</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>91.84430757398778</v>
+        <v>78.83221498849878</v>
       </c>
       <c r="B184" t="n">
-        <v>0.002328356857179415</v>
+        <v>0.02811587790182199</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>93.53457798181348</v>
+        <v>81.30725514271802</v>
       </c>
       <c r="B185" t="n">
-        <v>0.003287521656133355</v>
+        <v>0.03106857153607147</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>95.68909807145481</v>
+        <v>83.78229529693728</v>
       </c>
       <c r="B186" t="n">
-        <v>0.004799452044448575</v>
+        <v>0.03337684347480361</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>97.8436181610961</v>
+        <v>87.10623147795133</v>
       </c>
       <c r="B187" t="n">
-        <v>0.006596596951973323</v>
+        <v>0.03563198018535385</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>99.99813825073743</v>
+        <v>90.43016765896537</v>
       </c>
       <c r="B188" t="n">
-        <v>0.008613624916586245</v>
+        <v>0.03716329000351581</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>102.1526583403787</v>
+        <v>93.75410383997942</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0107848563780756</v>
+        <v>0.03818637296263549</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>104.30717843002</v>
+        <v>97.07804002099348</v>
       </c>
       <c r="B190" t="n">
-        <v>0.01304262821450385</v>
+        <v>0.03885500402807711</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>106.9779371935262</v>
+        <v>100.4019762020075</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01588462167795674</v>
+        <v>0.03928125332090353</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>109.6486959570323</v>
+        <v>106.1164133641534</v>
       </c>
       <c r="B192" t="n">
-        <v>0.01868696703375598</v>
+        <v>0.03966096784938025</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>112.3194547205385</v>
+        <v>111.8308505262993</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02138251432742371</v>
+        <v>0.0398327762800334</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>114.9902134840446</v>
+        <v>117.5452876884451</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02392421980512245</v>
+        <v>0.03992213232926944</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>117.7524774124289</v>
+        <v>123.259724850591</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02635740604334756</v>
+        <v>0.03996949375310373</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>120.5147413408132</v>
+        <v>124</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02857045193310148</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>123.2770052691975</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0.03055530305972304</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.03103720882623302</v>
+        <v>0.03997340218562494</v>
       </c>
     </row>
   </sheetData>
